--- a/relevant.xlsx
+++ b/relevant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web_App\Michael\Sapient\Sapient_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web_App\Michael\Sapient\Sapient\Energy-Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B61F9D-BD86-404B-844B-792526C171D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEABEA8-67AF-45A9-88D9-50D9D0E60D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Response</t>
   </si>
@@ -46,6 +46,78 @@
   </si>
   <si>
     <t>get_building_energy_consumption_by_end_uses_category</t>
+  </si>
+  <si>
+    <t>Return total building energy consumption</t>
+  </si>
+  <si>
+    <t>get_building_energy_consumption_overall</t>
+  </si>
+  <si>
+    <t>Return total building energy consumption with a break down by end use category</t>
+  </si>
+  <si>
+    <t>Return aggregated energy consumption for a specific end use category</t>
+  </si>
+  <si>
+    <t>Return energy consumption for a specific piece of equipment</t>
+  </si>
+  <si>
+    <t>get_most_consumption_equipment</t>
+  </si>
+  <si>
+    <t>Return top 5 pieces of equipment that contribute most to energy consumption of a specific end use category</t>
+  </si>
+  <si>
+    <t>get_explorer_equip_power_consumption</t>
+  </si>
+  <si>
+    <t>Return top 5 pieces of equipment that contribute most to energy consumption for a specific equipment type</t>
+  </si>
+  <si>
+    <t>Return top 5 pieces of equipment that contribute most to energy consumption for a specific time period</t>
+  </si>
+  <si>
+    <t>Return aggregated after hours energy consumption for a specific end use category (and % of total of end use category)</t>
+  </si>
+  <si>
+    <t>Return highest power draw of equipment in specified time period and time of occurence.</t>
+  </si>
+  <si>
+    <t>Return time of day when average energy consumption was the highest over specified period (and kWh value)</t>
+  </si>
+  <si>
+    <t>get_power_consumption_weekdays_weekend</t>
+  </si>
+  <si>
+    <t>Return energy consumption by month for [total building]</t>
+  </si>
+  <si>
+    <t>Return magintude of change for total building energy consumption from one period to the next (i.e., this month vs. last month)</t>
+  </si>
+  <si>
+    <t>Return contribution of change to total building energy consumption broken down by [end-use category]</t>
+  </si>
+  <si>
+    <t>Return contribution of change to total building energy consumption broken down by [specific equipment] (show top 5 in magnitude)</t>
+  </si>
+  <si>
+    <t>Return magnitude of change in energy consumption for [a specific end use category]</t>
+  </si>
+  <si>
+    <t>Return magnitude of change in energy consumption for [a specific piece of equipment]</t>
+  </si>
+  <si>
+    <t>Return top 5 contributors (specific pieces of equipment) that contributed to a change in energy consumption for [total building]</t>
+  </si>
+  <si>
+    <t>Return top 5 contributors (specific pieces of equipment) that contributed to a change in energy consumption for [a specific end-use category]</t>
+  </si>
+  <si>
+    <t>Return top 5 contributors (specific pieces of equipment) that contributed to a change in energy consumption for [a specific equipment type]</t>
+  </si>
+  <si>
+    <t>Return top 5 contributors (specific pieces of equipment) that contributed to a change in energy consumption for [a specific space type]</t>
   </si>
 </sst>
 </file>
@@ -395,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +511,174 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
